--- a/public/template/ImportTemplate.xlsx
+++ b/public/template/ImportTemplate.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documenten\3Bac\Project 4.0\Realisatie\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\sites_laravel\Team-34\public\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6B1594C9-DDBA-471D-85CE-DF62BBFD2111}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{098CE1FE-BC7A-4E64-BE34-98D219438632}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>email</t>
   </si>
@@ -60,9 +60,6 @@
   </si>
   <si>
     <t>vereniging</t>
-  </si>
-  <si>
-    <t>postcode</t>
   </si>
   <si>
     <t>maat</t>
@@ -445,10 +442,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N16"/>
+  <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N2" sqref="A2:N2"/>
+      <selection activeCell="J1" sqref="J1:J1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -462,15 +459,14 @@
     <col min="7" max="7" width="20.88671875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.44140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="23.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.44140625" customWidth="1"/>
-    <col min="13" max="13" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.44140625" customWidth="1"/>
+    <col min="12" max="12" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -499,10 +495,10 @@
         <v>7</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>8</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>11</v>
@@ -510,53 +506,50 @@
       <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
       <c r="B2" s="3"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
       <c r="B3" s="3"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
       <c r="B4" s="3"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
       <c r="B5" s="3"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
       <c r="B6" s="3"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="2"/>
       <c r="B7" s="3"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="2"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="2"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="2"/>
     </row>
   </sheetData>
